--- a/RPA/Генератор картинок/Макрос формирования реестра для робота/test/Лист Microsoft Excel.xlsx
+++ b/RPA/Генератор картинок/Макрос формирования реестра для робота/test/Лист Microsoft Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takemyslides_admin\Desktop\PicToSlide\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\alekseev\RPA\Генератор картинок\Макрос формирования реестра для робота\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7FEBE3-1C00-41B4-A2D7-E9F5ECE76F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631E43FD-A2FE-4C27-AEAB-1672F9DE87F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>хлеб всему голова</t>
-  </si>
-  <si>
-    <t>тест хлеб</t>
-  </si>
-  <si>
-    <t>одна голова хорошо, а две - лучше</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,28 +341,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>